--- a/assets/data/Data.xlsx
+++ b/assets/data/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Trip\Trip\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\flutter-proj\trip\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178BDE16-D9B2-4B17-831D-74A752A2889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4718AA2E-2A16-41C2-B1C5-37C66E806CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="145">
   <si>
     <t>شماره گروه</t>
   </si>
@@ -385,51 +384,9 @@
     <t>10:30-18:30</t>
   </si>
   <si>
-    <t>مختلط تجاری - تفریحی</t>
-  </si>
-  <si>
-    <t>18:00 - 20:30</t>
-  </si>
-  <si>
-    <t>17:45-19:30</t>
-  </si>
-  <si>
-    <t>13:15 - 19:30</t>
-  </si>
-  <si>
-    <t>مختلط تجاری - اداری</t>
-  </si>
-  <si>
-    <t>16:15-18:30</t>
-  </si>
-  <si>
-    <t>15:00 - 18:30</t>
-  </si>
-  <si>
-    <t>تعداد فضای پارک</t>
-  </si>
-  <si>
-    <t>7:15-10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برآورد سفر این گروه کاربری بر حسب سواری شخصی است. </t>
-  </si>
-  <si>
-    <t>تعداد نازل</t>
-  </si>
-  <si>
-    <t>11:30-20:00</t>
-  </si>
-  <si>
     <t>نرخ ایجاد صف بر اساس</t>
   </si>
   <si>
-    <t>پارکینگ طبقاتی</t>
-  </si>
-  <si>
-    <t>پمپ بنزین</t>
-  </si>
-  <si>
     <t>مجتمع مسكوني</t>
   </si>
   <si>
@@ -491,12 +448,6 @@
   </si>
   <si>
     <t>مجتمع تجاری</t>
-  </si>
-  <si>
-    <t>13:45 - 19:00</t>
-  </si>
-  <si>
-    <t>9:30 - 12:00</t>
   </si>
   <si>
     <t>واحد آپارتماني زير 75 مترمربع</t>
@@ -531,7 +482,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -734,16 +685,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,31 +754,13 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,16 +1044,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ64"/>
+  <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AP40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
@@ -1154,14 +1078,15 @@
     <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.109375" customWidth="1"/>
+    <col min="33" max="36" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="114.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="86.4">
+    <row r="1" spans="1:43" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1208,7 @@
         <v>38</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>39</v>
@@ -1292,7 +1217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="15">
+    <row r="2" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1302,10 +1227,10 @@
       <c r="C2" s="10">
         <v>25</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1314,10 +1239,10 @@
       <c r="G2" s="10">
         <v>70</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="49">
         <v>262</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="49">
         <v>25667</v>
       </c>
       <c r="J2" s="10">
@@ -1397,7 +1322,7 @@
       <c r="AP2" s="10"/>
       <c r="AQ2" s="10"/>
     </row>
-    <row r="3" spans="1:43" ht="15">
+    <row r="3" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1407,10 +1332,10 @@
       <c r="C3" s="10">
         <v>25</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -1514,20 +1439,20 @@
       <c r="AP3" s="10"/>
       <c r="AQ3" s="10"/>
     </row>
-    <row r="4" spans="1:43" ht="15">
+    <row r="4" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>153</v>
+      <c r="B4" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="C4" s="18">
         <v>11</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -1587,20 +1512,20 @@
       </c>
       <c r="AQ4" s="18"/>
     </row>
-    <row r="5" spans="1:43" ht="15">
+    <row r="5" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>153</v>
+      <c r="B5" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="C5" s="18">
         <v>11</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="18" t="s">
@@ -1660,20 +1585,20 @@
       </c>
       <c r="AQ5" s="18"/>
     </row>
-    <row r="6" spans="1:43" ht="15">
+    <row r="6" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C6" s="10">
         <v>11</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1767,20 +1692,20 @@
       <c r="AP6" s="10"/>
       <c r="AQ6" s="10"/>
     </row>
-    <row r="7" spans="1:43" ht="15">
+    <row r="7" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C7" s="10">
         <v>11</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -1874,26 +1799,26 @@
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
     </row>
-    <row r="8" spans="1:43" ht="15">
-      <c r="A8" s="24">
+    <row r="8" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="B8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="18">
         <v>5</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="18">
         <v>12</v>
       </c>
       <c r="H8" s="19">
@@ -1908,25 +1833,25 @@
       <c r="K8" s="19">
         <v>929</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="20">
         <v>0.3</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="20">
         <v>0.2</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="24">
         <v>0.10100000000000001</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="24">
         <v>99.11</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="24">
         <v>0.82799999999999996</v>
       </c>
       <c r="Q8" s="21">
         <v>1.2</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="21">
         <v>1.5</v>
       </c>
       <c r="S8" s="22">
@@ -1968,10 +1893,10 @@
       <c r="AI8" s="23"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="19"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
       <c r="AP8" s="18" t="s">
         <v>53</v>
       </c>
@@ -1979,26 +1904,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="15">
+    <row r="9" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="18">
         <v>5</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="18">
         <v>12</v>
       </c>
       <c r="H9" s="19">
@@ -2013,25 +1938,25 @@
       <c r="K9" s="19">
         <v>58021</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="20">
         <v>3</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="20">
         <v>3.4</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="24">
         <v>1E-3</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="24">
         <v>143.19999999999999</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="24">
         <v>0.85199999999999998</v>
       </c>
       <c r="Q9" s="21">
         <v>1.2</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="21">
         <v>1.5</v>
       </c>
       <c r="S9" s="22">
@@ -2073,10 +1998,10 @@
       <c r="AI9" s="23"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="19"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
       <c r="AP9" s="18" t="s">
         <v>55</v>
       </c>
@@ -2084,26 +2009,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="15">
+    <row r="10" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="B10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="18">
         <v>5</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="18">
         <v>12</v>
       </c>
       <c r="H10" s="19">
@@ -2118,25 +2043,25 @@
       <c r="K10" s="19">
         <v>361</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="20">
         <v>1.2</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="20">
         <v>0.7</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="24">
         <v>0.26600000000000001</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="24">
         <v>120.5</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="24">
         <v>0.86799999999999999</v>
       </c>
       <c r="Q10" s="21">
         <v>1.2</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="21">
         <v>1.5</v>
       </c>
       <c r="S10" s="22">
@@ -2178,10 +2103,10 @@
       <c r="AI10" s="23"/>
       <c r="AJ10" s="23"/>
       <c r="AK10" s="19"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
       <c r="AP10" s="18" t="s">
         <v>53</v>
       </c>
@@ -2189,20 +2114,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="15">
+    <row r="11" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C11" s="10">
         <v>17</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -2266,7 +2191,7 @@
       <c r="AB11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AC11" s="28"/>
+      <c r="AC11" s="25"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="17">
@@ -2292,20 +2217,20 @@
       <c r="AP11" s="10"/>
       <c r="AQ11" s="10"/>
     </row>
-    <row r="12" spans="1:43" ht="15">
+    <row r="12" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C12" s="10">
         <v>17</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -2395,26 +2320,26 @@
       <c r="AP12" s="10"/>
       <c r="AQ12" s="10"/>
     </row>
-    <row r="13" spans="1:43" ht="15">
-      <c r="A13" s="24">
+    <row r="13" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="24">
+      <c r="B13" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="18">
         <v>10</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="18">
         <v>50</v>
       </c>
       <c r="H13" s="19">
@@ -2429,19 +2354,19 @@
       <c r="K13" s="19">
         <v>10</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="20">
         <v>59</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="20">
         <v>28.6</v>
       </c>
       <c r="N13" s="18"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="28"/>
       <c r="Q13" s="21">
         <v>1.65</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="21">
         <v>1.5</v>
       </c>
       <c r="S13" s="22">
@@ -2472,13 +2397,13 @@
       <c r="AB13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AC13" s="26">
+      <c r="AC13" s="24">
         <v>3.1480000000000001</v>
       </c>
-      <c r="AD13" s="26">
+      <c r="AD13" s="24">
         <v>30.57</v>
       </c>
-      <c r="AE13" s="26">
+      <c r="AE13" s="24">
         <v>0.60199999999999998</v>
       </c>
       <c r="AF13" s="23">
@@ -2497,35 +2422,35 @@
         <v>0.88</v>
       </c>
       <c r="AK13" s="19"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
       <c r="AP13" s="18" t="s">
         <v>61</v>
       </c>
       <c r="AQ13" s="18"/>
     </row>
-    <row r="14" spans="1:43" ht="15">
-      <c r="A14" s="24">
+    <row r="14" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="B14" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="18">
         <v>10</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="18">
         <v>50</v>
       </c>
       <c r="H14" s="19">
@@ -2540,19 +2465,19 @@
       <c r="K14" s="19">
         <v>4186</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="20">
         <v>57.9</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="20">
         <v>39</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="21">
         <v>1.65</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="21">
         <v>1.5</v>
       </c>
       <c r="S14" s="22">
@@ -2613,20 +2538,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15">
+    <row r="15" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C15" s="10">
         <v>24</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -2718,20 +2643,20 @@
       </c>
       <c r="AQ15" s="10"/>
     </row>
-    <row r="16" spans="1:43" ht="15">
+    <row r="16" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C16" s="10">
         <v>24</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2797,11 +2722,11 @@
       </c>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
-      <c r="AE16" s="33"/>
+      <c r="AE16" s="30"/>
       <c r="AF16" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AG16" s="34">
+      <c r="AG16" s="31">
         <v>2</v>
       </c>
       <c r="AH16" s="17">
@@ -2823,20 +2748,20 @@
       </c>
       <c r="AQ16" s="10"/>
     </row>
-    <row r="17" spans="1:43" ht="15">
+    <row r="17" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C17" s="10">
         <v>24</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -2864,8 +2789,8 @@
         <v>5.9</v>
       </c>
       <c r="N17" s="10"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
       <c r="Q17" s="15">
         <v>2.2999999999999998</v>
       </c>
@@ -2919,10 +2844,10 @@
         <v>0.7</v>
       </c>
       <c r="AK17" s="12"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
       <c r="AP17" s="10" t="s">
         <v>53</v>
       </c>
@@ -2930,26 +2855,26 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="15">
+    <row r="18" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="24">
+      <c r="B18" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="18">
         <v>5</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="18">
         <v>49</v>
       </c>
       <c r="H18" s="19">
@@ -2970,19 +2895,19 @@
       <c r="M18" s="20">
         <v>6.9774122004132337</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="24">
         <v>0.2225</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="24">
         <v>756.18</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="24">
         <v>0.63700000000000001</v>
       </c>
       <c r="Q18" s="21">
         <v>2.1</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="21">
         <v>1.9</v>
       </c>
       <c r="S18" s="22">
@@ -3032,10 +2957,10 @@
         <v>0.85182755153343392</v>
       </c>
       <c r="AK18" s="19"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
       <c r="AP18" s="18" t="s">
         <v>53</v>
       </c>
@@ -3043,26 +2968,26 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="15">
+    <row r="19" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="B19" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="18">
         <v>5</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="18">
         <v>49</v>
       </c>
       <c r="H19" s="19">
@@ -3089,7 +3014,7 @@
       <c r="Q19" s="21">
         <v>2.1</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="21">
         <v>1.9</v>
       </c>
       <c r="S19" s="22">
@@ -3148,26 +3073,26 @@
       </c>
       <c r="AQ19" s="18"/>
     </row>
-    <row r="20" spans="1:43" ht="15">
-      <c r="A20" s="24">
+    <row r="20" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="24">
+      <c r="B20" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="18">
         <v>5</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="18">
         <v>49</v>
       </c>
       <c r="H20" s="19">
@@ -3194,7 +3119,7 @@
       <c r="Q20" s="21">
         <v>2.1</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="21">
         <v>1.9</v>
       </c>
       <c r="S20" s="22">
@@ -3253,20 +3178,20 @@
       </c>
       <c r="AQ20" s="18"/>
     </row>
-    <row r="21" spans="1:43" ht="15">
+    <row r="21" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C21" s="10">
         <v>11</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -3356,26 +3281,26 @@
       <c r="AP21" s="10"/>
       <c r="AQ21" s="10"/>
     </row>
-    <row r="22" spans="1:43" ht="15">
-      <c r="A22" s="24">
+    <row r="22" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="24">
+      <c r="B22" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="18">
         <v>5</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="18">
         <v>49</v>
       </c>
       <c r="H22" s="19">
@@ -3402,7 +3327,7 @@
       <c r="Q22" s="21">
         <v>2.8</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="21">
         <v>2.4</v>
       </c>
       <c r="S22" s="22">
@@ -3459,20 +3384,20 @@
       <c r="AP22" s="18"/>
       <c r="AQ22" s="18"/>
     </row>
-    <row r="23" spans="1:43" ht="15">
+    <row r="23" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -3570,26 +3495,26 @@
       </c>
       <c r="AQ23" s="10"/>
     </row>
-    <row r="24" spans="1:43" ht="15">
+    <row r="24" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="24">
+      <c r="B24" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="18">
         <v>5</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="18">
         <v>51</v>
       </c>
       <c r="H24" s="19">
@@ -3610,13 +3535,13 @@
       <c r="M24" s="20">
         <v>10.413932402394046</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="24">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="24">
         <v>357</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="24">
         <v>0.75700000000000001</v>
       </c>
       <c r="Q24" s="21">
@@ -3647,7 +3572,7 @@
         <v>6.6177702187675553</v>
       </c>
       <c r="Z24" s="22"/>
-      <c r="AA24" s="37">
+      <c r="AA24" s="34">
         <v>97.655178861291532</v>
       </c>
       <c r="AB24" s="18" t="s">
@@ -3671,28 +3596,28 @@
       <c r="AJ24" s="23">
         <v>0.71190476190476193</v>
       </c>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
       <c r="AP24" s="18"/>
       <c r="AQ24" s="18"/>
     </row>
-    <row r="25" spans="1:43" ht="15">
+    <row r="25" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C25" s="10">
         <v>5</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -3790,20 +3715,20 @@
       </c>
       <c r="AQ25" s="10"/>
     </row>
-    <row r="26" spans="1:43" ht="15">
+    <row r="26" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C26" s="10">
         <v>5</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -3901,20 +3826,20 @@
       </c>
       <c r="AQ26" s="10"/>
     </row>
-    <row r="27" spans="1:43" ht="15">
+    <row r="27" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C27" s="10">
         <v>5</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="10" t="s">
@@ -4012,26 +3937,26 @@
       </c>
       <c r="AQ27" s="10"/>
     </row>
-    <row r="28" spans="1:43" ht="15">
-      <c r="A28" s="24">
+    <row r="28" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="24">
+      <c r="B28" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="18">
         <v>5</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="18">
         <v>50</v>
       </c>
       <c r="H28" s="19">
@@ -4058,7 +3983,7 @@
       <c r="Q28" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R28" s="27">
+      <c r="R28" s="21">
         <v>1.3</v>
       </c>
       <c r="S28" s="22">
@@ -4117,26 +4042,26 @@
       </c>
       <c r="AQ28" s="18"/>
     </row>
-    <row r="29" spans="1:43" ht="15">
-      <c r="A29" s="24">
+    <row r="29" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="24">
+      <c r="B29" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="18">
         <v>5</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="18">
         <v>50</v>
       </c>
       <c r="H29" s="19">
@@ -4163,7 +4088,7 @@
       <c r="Q29" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R29" s="27">
+      <c r="R29" s="21">
         <v>1.3</v>
       </c>
       <c r="S29" s="22">
@@ -4194,19 +4119,19 @@
       <c r="AB29" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AC29" s="26">
+      <c r="AC29" s="24">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AD29" s="26">
+      <c r="AD29" s="24">
         <v>2.2650000000000001</v>
       </c>
-      <c r="AE29" s="26">
+      <c r="AE29" s="24">
         <v>0.80100000000000005</v>
       </c>
-      <c r="AF29" s="38">
+      <c r="AF29" s="35">
         <v>4.2963054187192125</v>
       </c>
-      <c r="AG29" s="38">
+      <c r="AG29" s="35">
         <v>1.3336334210985223</v>
       </c>
       <c r="AH29" s="23">
@@ -4228,26 +4153,26 @@
       </c>
       <c r="AQ29" s="18"/>
     </row>
-    <row r="30" spans="1:43" ht="15">
+    <row r="30" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="24">
+      <c r="B30" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="18">
         <v>5</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="18">
         <v>50</v>
       </c>
       <c r="H30" s="19">
@@ -4274,7 +4199,7 @@
       <c r="Q30" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R30" s="27">
+      <c r="R30" s="21">
         <v>1.3</v>
       </c>
       <c r="S30" s="22">
@@ -4333,20 +4258,20 @@
       </c>
       <c r="AQ30" s="18"/>
     </row>
-    <row r="31" spans="1:43" ht="15">
+    <row r="31" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C31" s="10">
         <v>5</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -4370,11 +4295,11 @@
       <c r="L31" s="13">
         <v>22</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="36">
         <v>21.6</v>
       </c>
-      <c r="N31" s="40"/>
-      <c r="O31" s="35"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="32"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="15">
         <v>1.1000000000000001</v>
@@ -4438,20 +4363,20 @@
       </c>
       <c r="AQ31" s="10"/>
     </row>
-    <row r="32" spans="1:43" ht="15">
+    <row r="32" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C32" s="10">
         <v>5</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -4478,9 +4403,9 @@
       <c r="M32" s="13">
         <v>129.30000000000001</v>
       </c>
-      <c r="N32" s="41"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="35"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="32"/>
       <c r="Q32" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -4534,29 +4459,29 @@
         <v>5.86</v>
       </c>
       <c r="AK32" s="12"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-      <c r="AO32" s="35"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
       <c r="AP32" s="10" t="s">
         <v>84</v>
       </c>
       <c r="AQ32" s="10"/>
     </row>
-    <row r="33" spans="1:43" ht="15">
+    <row r="33" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C33" s="10">
         <v>5</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F33" s="10" t="s">
@@ -4646,28 +4571,28 @@
       <c r="AP33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AQ33" s="35"/>
+      <c r="AQ33" s="32"/>
     </row>
-    <row r="34" spans="1:43" ht="15">
+    <row r="34" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>33</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="24">
+      <c r="B34" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="18">
         <v>5</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="18">
         <v>47</v>
       </c>
       <c r="H34" s="19">
@@ -4694,7 +4619,7 @@
       <c r="Q34" s="21">
         <v>1.2</v>
       </c>
-      <c r="R34" s="27">
+      <c r="R34" s="21">
         <v>1.2</v>
       </c>
       <c r="S34" s="22">
@@ -4753,26 +4678,26 @@
       </c>
       <c r="AQ34" s="18"/>
     </row>
-    <row r="35" spans="1:43" ht="15">
+    <row r="35" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="24">
+      <c r="B35" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="18">
         <v>5</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="18">
         <v>47</v>
       </c>
       <c r="H35" s="19">
@@ -4799,7 +4724,7 @@
       <c r="Q35" s="21">
         <v>1.2</v>
       </c>
-      <c r="R35" s="27">
+      <c r="R35" s="21">
         <v>1.2</v>
       </c>
       <c r="S35" s="22">
@@ -4858,20 +4783,20 @@
       </c>
       <c r="AQ35" s="18"/>
     </row>
-    <row r="36" spans="1:43" ht="15">
+    <row r="36" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -4963,26 +4888,26 @@
       </c>
       <c r="AQ36" s="10"/>
     </row>
-    <row r="37" spans="1:43" ht="15">
+    <row r="37" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="24">
+      <c r="B37" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="18">
         <v>9</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="18">
         <v>56</v>
       </c>
       <c r="H37" s="19">
@@ -5009,7 +4934,7 @@
       <c r="Q37" s="21">
         <v>1.3</v>
       </c>
-      <c r="R37" s="27">
+      <c r="R37" s="21">
         <v>1.2</v>
       </c>
       <c r="S37" s="22">
@@ -5068,20 +4993,20 @@
       </c>
       <c r="AQ37" s="18"/>
     </row>
-    <row r="38" spans="1:43" ht="15">
+    <row r="38" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C38" s="10">
         <v>5</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F38" s="10" t="s">
@@ -5167,20 +5092,20 @@
       <c r="AP38" s="10"/>
       <c r="AQ38" s="10"/>
     </row>
-    <row r="39" spans="1:43" ht="15">
+    <row r="39" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C39" s="10">
         <v>5</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -5266,20 +5191,20 @@
       <c r="AP39" s="10"/>
       <c r="AQ39" s="10"/>
     </row>
-    <row r="40" spans="1:43" ht="15">
+    <row r="40" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C40" s="10">
         <v>5</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -5365,26 +5290,26 @@
       <c r="AP40" s="10"/>
       <c r="AQ40" s="10"/>
     </row>
-    <row r="41" spans="1:43" ht="15">
-      <c r="A41" s="24">
+    <row r="41" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="24">
+      <c r="B41" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="18">
         <v>5</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="18">
         <v>50</v>
       </c>
       <c r="H41" s="19">
@@ -5399,19 +5324,19 @@
       <c r="K41" s="19">
         <v>42822</v>
       </c>
-      <c r="L41" s="43">
+      <c r="L41" s="40">
         <v>15.4</v>
       </c>
-      <c r="M41" s="43">
+      <c r="M41" s="40">
         <v>15.6</v>
       </c>
-      <c r="N41" s="44"/>
-      <c r="O41" s="45"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="42"/>
       <c r="P41" s="18"/>
-      <c r="Q41" s="27">
+      <c r="Q41" s="21">
         <v>2</v>
       </c>
-      <c r="R41" s="27">
+      <c r="R41" s="21">
         <v>1.8</v>
       </c>
       <c r="S41" s="22">
@@ -5442,13 +5367,13 @@
       <c r="AB41" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AC41" s="26">
+      <c r="AC41" s="24">
         <v>1.55E-4</v>
       </c>
-      <c r="AD41" s="26">
+      <c r="AD41" s="24">
         <v>9.1270000000000007</v>
       </c>
-      <c r="AE41" s="26">
+      <c r="AE41" s="24">
         <v>0.67800000000000005</v>
       </c>
       <c r="AF41" s="23">
@@ -5476,20 +5401,20 @@
       </c>
       <c r="AQ41" s="18"/>
     </row>
-    <row r="42" spans="1:43" ht="15">
+    <row r="42" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="46" t="s">
-        <v>141</v>
+      <c r="B42" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="C42" s="10">
         <v>5</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="10" t="s">
@@ -5579,26 +5504,26 @@
       <c r="AP42" s="10"/>
       <c r="AQ42" s="10"/>
     </row>
-    <row r="43" spans="1:43" ht="15">
-      <c r="A43" s="24">
+    <row r="43" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="24">
+      <c r="B43" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="18">
         <v>15</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="18">
         <v>51</v>
       </c>
       <c r="H43" s="19">
@@ -5619,19 +5544,19 @@
       <c r="M43" s="20">
         <v>1.9</v>
       </c>
-      <c r="N43" s="26">
+      <c r="N43" s="24">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O43" s="26">
+      <c r="O43" s="24">
         <v>150.35</v>
       </c>
-      <c r="P43" s="26">
+      <c r="P43" s="24">
         <v>0.84499999999999997</v>
       </c>
-      <c r="Q43" s="27">
+      <c r="Q43" s="21">
         <v>2.4</v>
       </c>
-      <c r="R43" s="27">
+      <c r="R43" s="21">
         <v>2.1</v>
       </c>
       <c r="S43" s="21">
@@ -5662,13 +5587,13 @@
       <c r="AB43" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="AC43" s="26">
+      <c r="AC43" s="24">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="AD43" s="26">
+      <c r="AD43" s="24">
         <v>16.78</v>
       </c>
-      <c r="AE43" s="26">
+      <c r="AE43" s="24">
         <v>0.70799999999999996</v>
       </c>
       <c r="AF43" s="23">
@@ -5687,33 +5612,33 @@
         <v>0.3</v>
       </c>
       <c r="AK43" s="19"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
-      <c r="AO43" s="26"/>
+      <c r="AL43" s="24"/>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="24"/>
       <c r="AP43" s="18"/>
       <c r="AQ43" s="18"/>
     </row>
-    <row r="44" spans="1:43" ht="15">
-      <c r="A44" s="24">
+    <row r="44" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="24">
+      <c r="B44" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="18">
         <v>15</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="18">
         <v>51</v>
       </c>
       <c r="H44" s="19">
@@ -5734,19 +5659,19 @@
       <c r="M44" s="20">
         <v>1.5</v>
       </c>
-      <c r="N44" s="26">
+      <c r="N44" s="24">
         <v>2.1722999999999999</v>
       </c>
-      <c r="O44" s="26">
+      <c r="O44" s="24">
         <v>168.99</v>
       </c>
-      <c r="P44" s="26">
+      <c r="P44" s="24">
         <v>0.76700000000000002</v>
       </c>
-      <c r="Q44" s="27">
+      <c r="Q44" s="21">
         <v>2.4</v>
       </c>
-      <c r="R44" s="27">
+      <c r="R44" s="21">
         <v>2.1</v>
       </c>
       <c r="S44" s="21">
@@ -5777,13 +5702,13 @@
       <c r="AB44" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="AC44" s="26">
+      <c r="AC44" s="24">
         <v>0.31569999999999998</v>
       </c>
-      <c r="AD44" s="26">
+      <c r="AD44" s="24">
         <v>21.024999999999999</v>
       </c>
-      <c r="AE44" s="26">
+      <c r="AE44" s="24">
         <v>0.624</v>
       </c>
       <c r="AF44" s="23">
@@ -5802,27 +5727,27 @@
         <v>0.3</v>
       </c>
       <c r="AK44" s="19"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="24"/>
+      <c r="AO44" s="24"/>
       <c r="AP44" s="18"/>
       <c r="AQ44" s="18"/>
     </row>
-    <row r="45" spans="1:43" ht="15">
+    <row r="45" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>139</v>
+      <c r="B45" s="43" t="s">
+        <v>125</v>
       </c>
       <c r="C45" s="10">
         <v>10</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F45" s="10" t="s">
@@ -5914,26 +5839,26 @@
       <c r="AP45" s="10"/>
       <c r="AQ45" s="10"/>
     </row>
-    <row r="46" spans="1:43" ht="15">
-      <c r="A46" s="24">
+    <row r="46" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
-      <c r="B46" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="24">
+      <c r="B46" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="18">
         <v>12</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="18">
         <v>49</v>
       </c>
       <c r="H46" s="19">
@@ -5954,10 +5879,10 @@
       <c r="M46" s="20">
         <v>6.3</v>
       </c>
-      <c r="N46" s="45"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="27">
+      <c r="N46" s="42"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="21">
         <v>1.9236258627247</v>
       </c>
       <c r="R46" s="21">
@@ -6010,27 +5935,27 @@
         <v>0.91358374031247125</v>
       </c>
       <c r="AK46" s="19"/>
-      <c r="AL46" s="45"/>
-      <c r="AM46" s="45"/>
-      <c r="AN46" s="45"/>
-      <c r="AO46" s="45"/>
+      <c r="AL46" s="42"/>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="42"/>
+      <c r="AO46" s="42"/>
       <c r="AP46" s="18"/>
       <c r="AQ46" s="18"/>
     </row>
-    <row r="47" spans="1:43" ht="15">
+    <row r="47" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>137</v>
+      <c r="B47" s="43" t="s">
+        <v>123</v>
       </c>
       <c r="C47" s="10">
         <v>10</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F47" s="10" t="s">
@@ -6092,9 +6017,9 @@
       <c r="AB47" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="40"/>
-      <c r="AE47" s="35"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="32"/>
       <c r="AF47" s="17">
         <v>0.13287403925173086</v>
       </c>
@@ -6120,20 +6045,20 @@
       </c>
       <c r="AQ47" s="10"/>
     </row>
-    <row r="48" spans="1:43" ht="15">
+    <row r="48" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="46" t="s">
-        <v>137</v>
+      <c r="B48" s="43" t="s">
+        <v>123</v>
       </c>
       <c r="C48" s="10">
         <v>10</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -6223,26 +6148,26 @@
       </c>
       <c r="AQ48" s="10"/>
     </row>
-    <row r="49" spans="1:43" ht="15">
-      <c r="A49" s="24">
+    <row r="49" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="24">
+      <c r="B49" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="18">
         <v>5</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="18">
         <v>60</v>
       </c>
       <c r="H49" s="19">
@@ -6266,10 +6191,10 @@
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
-      <c r="Q49" s="27">
+      <c r="Q49" s="21">
         <v>1.4</v>
       </c>
-      <c r="R49" s="27">
+      <c r="R49" s="21">
         <v>2.5</v>
       </c>
       <c r="S49" s="21">
@@ -6326,26 +6251,26 @@
       </c>
       <c r="AQ49" s="18"/>
     </row>
-    <row r="50" spans="1:43" ht="15">
-      <c r="A50" s="24">
+    <row r="50" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="24">
+      <c r="B50" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="18">
         <v>5</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="55" t="s">
+      <c r="E50" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="18">
         <v>60</v>
       </c>
       <c r="H50" s="19">
@@ -6366,19 +6291,19 @@
       <c r="M50" s="20">
         <v>0.5</v>
       </c>
-      <c r="N50" s="26">
+      <c r="N50" s="24">
         <v>1.0298</v>
       </c>
-      <c r="O50" s="26">
+      <c r="O50" s="24">
         <v>3.7829999999999999</v>
       </c>
-      <c r="P50" s="26">
+      <c r="P50" s="24">
         <v>0.78</v>
       </c>
-      <c r="Q50" s="27">
+      <c r="Q50" s="21">
         <v>1.4</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R50" s="21">
         <v>2.5</v>
       </c>
       <c r="S50" s="21">
@@ -6407,13 +6332,13 @@
       <c r="AB50" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="AC50" s="26">
+      <c r="AC50" s="24">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="AD50" s="26">
+      <c r="AD50" s="24">
         <v>1.407</v>
       </c>
-      <c r="AE50" s="26">
+      <c r="AE50" s="24">
         <v>0.995</v>
       </c>
       <c r="AF50" s="23">
@@ -6432,29 +6357,29 @@
         <v>0.01</v>
       </c>
       <c r="AK50" s="19"/>
-      <c r="AL50" s="26"/>
-      <c r="AM50" s="26"/>
-      <c r="AN50" s="26"/>
-      <c r="AO50" s="26"/>
+      <c r="AL50" s="24"/>
+      <c r="AM50" s="24"/>
+      <c r="AN50" s="24"/>
+      <c r="AO50" s="24"/>
       <c r="AP50" s="18" t="s">
         <v>53</v>
       </c>
       <c r="AQ50" s="18"/>
     </row>
-    <row r="51" spans="1:43" ht="15">
+    <row r="51" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>50</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>135</v>
+      <c r="B51" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="C51" s="10">
         <v>7</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="54" t="s">
+      <c r="E51" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -6556,20 +6481,20 @@
       <c r="AP51" s="10"/>
       <c r="AQ51" s="10"/>
     </row>
-    <row r="52" spans="1:43" ht="15">
+    <row r="52" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>51</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>135</v>
+      <c r="B52" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="C52" s="10">
         <v>7</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F52" s="10" t="s">
@@ -6659,26 +6584,26 @@
       <c r="AP52" s="10"/>
       <c r="AQ52" s="10"/>
     </row>
-    <row r="53" spans="1:43" ht="15">
-      <c r="A53" s="24">
+    <row r="53" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="24">
+      <c r="B53" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="18">
         <v>10</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="55" t="s">
+      <c r="E53" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="18">
         <v>51</v>
       </c>
       <c r="H53" s="19">
@@ -6702,7 +6627,7 @@
       <c r="N53" s="18"/>
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
-      <c r="Q53" s="27">
+      <c r="Q53" s="21">
         <v>3.2200193243289221</v>
       </c>
       <c r="R53" s="21">
@@ -6730,7 +6655,7 @@
         <v>6.2671340144425214</v>
       </c>
       <c r="Z53" s="21"/>
-      <c r="AA53" s="48">
+      <c r="AA53" s="45">
         <v>86.300975743705706</v>
       </c>
       <c r="AB53" s="18" t="s">
@@ -6754,7 +6679,7 @@
       <c r="AJ53" s="23">
         <v>1.2990038066508656</v>
       </c>
-      <c r="AK53" s="48"/>
+      <c r="AK53" s="45"/>
       <c r="AL53" s="18"/>
       <c r="AM53" s="18"/>
       <c r="AN53" s="18"/>
@@ -6762,26 +6687,26 @@
       <c r="AP53" s="18"/>
       <c r="AQ53" s="18"/>
     </row>
-    <row r="54" spans="1:43" ht="15">
-      <c r="A54" s="24">
+    <row r="54" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="18">
         <v>53</v>
       </c>
-      <c r="B54" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="24">
+      <c r="B54" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="18">
         <v>10</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E54" s="55" t="s">
+      <c r="E54" s="48" t="s">
         <v>57</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="18">
         <v>51</v>
       </c>
       <c r="H54" s="19">
@@ -6805,7 +6730,7 @@
       <c r="N54" s="18"/>
       <c r="O54" s="18"/>
       <c r="P54" s="18"/>
-      <c r="Q54" s="27">
+      <c r="Q54" s="21">
         <v>3.2200193243289221</v>
       </c>
       <c r="R54" s="21">
@@ -6833,7 +6758,7 @@
         <v>6.2671340144425214</v>
       </c>
       <c r="Z54" s="21"/>
-      <c r="AA54" s="48">
+      <c r="AA54" s="45">
         <v>86.300975743705706</v>
       </c>
       <c r="AB54" s="18" t="s">
@@ -6857,7 +6782,7 @@
       <c r="AJ54" s="23">
         <v>5.5142005340147751E-2</v>
       </c>
-      <c r="AK54" s="48"/>
+      <c r="AK54" s="45"/>
       <c r="AL54" s="18"/>
       <c r="AM54" s="18"/>
       <c r="AN54" s="18"/>
@@ -6865,20 +6790,20 @@
       <c r="AP54" s="18"/>
       <c r="AQ54" s="18"/>
     </row>
-    <row r="55" spans="1:43" ht="15">
+    <row r="55" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>54</v>
       </c>
-      <c r="B55" s="46" t="s">
-        <v>133</v>
+      <c r="B55" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="C55" s="10">
         <v>5</v>
       </c>
-      <c r="D55" s="54" t="s">
+      <c r="D55" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="54" t="s">
+      <c r="E55" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -6908,10 +6833,10 @@
       <c r="N55" s="14">
         <v>4.68</v>
       </c>
-      <c r="O55" s="49">
+      <c r="O55" s="46">
         <v>82.06</v>
       </c>
-      <c r="P55" s="49">
+      <c r="P55" s="46">
         <v>0.81899999999999995</v>
       </c>
       <c r="Q55" s="15">
@@ -6950,7 +6875,7 @@
       <c r="AD55" s="14">
         <v>1.89</v>
       </c>
-      <c r="AE55" s="49">
+      <c r="AE55" s="46">
         <v>0.65200000000000002</v>
       </c>
       <c r="AF55" s="17">
@@ -6969,29 +6894,29 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK55" s="12"/>
-      <c r="AL55" s="49"/>
-      <c r="AM55" s="49"/>
-      <c r="AN55" s="49"/>
-      <c r="AO55" s="49"/>
+      <c r="AL55" s="46"/>
+      <c r="AM55" s="46"/>
+      <c r="AN55" s="46"/>
+      <c r="AO55" s="46"/>
       <c r="AP55" s="10" t="s">
         <v>110</v>
       </c>
       <c r="AQ55" s="10"/>
     </row>
-    <row r="56" spans="1:43" ht="15">
+    <row r="56" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>55</v>
       </c>
-      <c r="B56" s="46" t="s">
-        <v>133</v>
+      <c r="B56" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="C56" s="10">
         <v>5</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -7091,26 +7016,26 @@
       </c>
       <c r="AQ56" s="10"/>
     </row>
-    <row r="57" spans="1:43" ht="15">
-      <c r="A57" s="24">
+    <row r="57" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="18">
         <v>56</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="24">
+      <c r="B57" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="18">
         <v>5</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="18">
         <v>48</v>
       </c>
       <c r="H57" s="19">
@@ -7131,19 +7056,19 @@
       <c r="M57" s="20">
         <v>0.3</v>
       </c>
-      <c r="N57" s="26">
+      <c r="N57" s="24">
         <v>1.284</v>
       </c>
-      <c r="O57" s="26">
+      <c r="O57" s="24">
         <v>48.15</v>
       </c>
-      <c r="P57" s="26">
+      <c r="P57" s="24">
         <v>0.91600000000000004</v>
       </c>
-      <c r="Q57" s="27">
+      <c r="Q57" s="21">
         <v>1.2</v>
       </c>
-      <c r="R57" s="27">
+      <c r="R57" s="21">
         <v>1.24</v>
       </c>
       <c r="S57" s="21">
@@ -7187,35 +7112,35 @@
       <c r="AI57" s="23"/>
       <c r="AJ57" s="23"/>
       <c r="AK57" s="19"/>
-      <c r="AL57" s="26"/>
-      <c r="AM57" s="26"/>
-      <c r="AN57" s="26"/>
-      <c r="AO57" s="26"/>
+      <c r="AL57" s="24"/>
+      <c r="AM57" s="24"/>
+      <c r="AN57" s="24"/>
+      <c r="AO57" s="24"/>
       <c r="AP57" s="18" t="s">
         <v>113</v>
       </c>
       <c r="AQ57" s="18"/>
     </row>
-    <row r="58" spans="1:43" ht="15">
-      <c r="A58" s="24">
+    <row r="58" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+      <c r="A58" s="18">
         <v>57</v>
       </c>
-      <c r="B58" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="24">
+      <c r="B58" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="18">
         <v>5</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="18">
         <v>48</v>
       </c>
       <c r="H58" s="19">
@@ -7236,19 +7161,19 @@
       <c r="M58" s="20">
         <v>0.3</v>
       </c>
-      <c r="N58" s="26">
+      <c r="N58" s="24">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O58" s="26">
+      <c r="O58" s="24">
         <v>3.524</v>
       </c>
-      <c r="P58" s="26">
+      <c r="P58" s="24">
         <v>0.74399999999999999</v>
       </c>
-      <c r="Q58" s="27">
+      <c r="Q58" s="21">
         <v>1.2</v>
       </c>
-      <c r="R58" s="27">
+      <c r="R58" s="21">
         <v>1.24</v>
       </c>
       <c r="S58" s="21">
@@ -7292,29 +7217,29 @@
       <c r="AI58" s="23"/>
       <c r="AJ58" s="23"/>
       <c r="AK58" s="19"/>
-      <c r="AL58" s="26"/>
-      <c r="AM58" s="26"/>
-      <c r="AN58" s="26"/>
-      <c r="AO58" s="26"/>
+      <c r="AL58" s="24"/>
+      <c r="AM58" s="24"/>
+      <c r="AN58" s="24"/>
+      <c r="AO58" s="24"/>
       <c r="AP58" s="18" t="s">
         <v>113</v>
       </c>
       <c r="AQ58" s="18"/>
     </row>
-    <row r="59" spans="1:43" ht="15">
+    <row r="59" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C59" s="10">
         <v>5</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="54" t="s">
+      <c r="E59" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -7416,417 +7341,8 @@
       <c r="AP59" s="10"/>
       <c r="AQ59" s="10"/>
     </row>
-    <row r="60" spans="1:43" ht="15">
-      <c r="A60" s="24">
-        <v>59</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="24">
-        <v>12</v>
-      </c>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" s="24">
-        <v>50</v>
-      </c>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="27">
-        <v>2.4</v>
-      </c>
-      <c r="R60" s="27">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S60" s="27">
-        <v>53.034197473682774</v>
-      </c>
-      <c r="T60" s="27">
-        <v>3.5986557952663003</v>
-      </c>
-      <c r="U60" s="27">
-        <v>7.6459074113858394</v>
-      </c>
-      <c r="V60" s="27">
-        <v>3.694690461324722</v>
-      </c>
-      <c r="W60" s="27">
-        <v>1.8599741065835049</v>
-      </c>
-      <c r="X60" s="27">
-        <v>23.235949058079196</v>
-      </c>
-      <c r="Y60" s="27">
-        <v>6.9306292651062504</v>
-      </c>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="51">
-        <v>87</v>
-      </c>
-      <c r="AB60" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC60" s="52"/>
-      <c r="AD60" s="52"/>
-      <c r="AE60" s="52"/>
-      <c r="AF60" s="53"/>
-      <c r="AG60" s="53"/>
-      <c r="AH60" s="53"/>
-      <c r="AI60" s="53"/>
-      <c r="AJ60" s="53"/>
-      <c r="AK60" s="51"/>
-      <c r="AL60" s="52"/>
-      <c r="AM60" s="52"/>
-      <c r="AN60" s="52"/>
-      <c r="AO60" s="52"/>
-      <c r="AP60" s="24"/>
-      <c r="AQ60" s="24"/>
-    </row>
-    <row r="61" spans="1:43" ht="15">
-      <c r="A61" s="10">
-        <v>60</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="10">
-        <v>5</v>
-      </c>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G61" s="10">
-        <v>48</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="15">
-        <v>2.1</v>
-      </c>
-      <c r="R61" s="15">
-        <v>2</v>
-      </c>
-      <c r="S61" s="15">
-        <v>50.571572873514306</v>
-      </c>
-      <c r="T61" s="15">
-        <v>2.8370333038106459</v>
-      </c>
-      <c r="U61" s="15">
-        <v>4.9409059808482807</v>
-      </c>
-      <c r="V61" s="15">
-        <v>4.7254803867951702</v>
-      </c>
-      <c r="W61" s="15">
-        <v>3.8897256672892166</v>
-      </c>
-      <c r="X61" s="15">
-        <v>20.469584853674132</v>
-      </c>
-      <c r="Y61" s="15">
-        <v>12.565696934068256</v>
-      </c>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="12">
-        <v>104</v>
-      </c>
-      <c r="AB61" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC61" s="14"/>
-      <c r="AD61" s="14"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="17"/>
-      <c r="AG61" s="17"/>
-      <c r="AH61" s="17"/>
-      <c r="AI61" s="17"/>
-      <c r="AJ61" s="17"/>
-      <c r="AK61" s="12"/>
-      <c r="AL61" s="14"/>
-      <c r="AM61" s="14"/>
-      <c r="AN61" s="14"/>
-      <c r="AO61" s="14"/>
-      <c r="AP61" s="10"/>
-      <c r="AQ61" s="10"/>
-    </row>
-    <row r="62" spans="1:43" ht="15">
-      <c r="A62" s="24">
-        <v>61</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="24">
-        <v>5</v>
-      </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G62" s="24">
-        <v>39</v>
-      </c>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="27">
-        <v>1.6</v>
-      </c>
-      <c r="R62" s="27">
-        <v>1.6</v>
-      </c>
-      <c r="S62" s="27">
-        <v>41.391558717660132</v>
-      </c>
-      <c r="T62" s="27">
-        <v>4.6584318423238003</v>
-      </c>
-      <c r="U62" s="27">
-        <v>11.616249265579132</v>
-      </c>
-      <c r="V62" s="27">
-        <v>6.5151119919051439</v>
-      </c>
-      <c r="W62" s="27">
-        <v>7.6486523999373404</v>
-      </c>
-      <c r="X62" s="27">
-        <v>14.531921585593778</v>
-      </c>
-      <c r="Y62" s="27">
-        <v>13.638074197000671</v>
-      </c>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="51">
-        <v>186</v>
-      </c>
-      <c r="AB62" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC62" s="52"/>
-      <c r="AD62" s="52"/>
-      <c r="AE62" s="52"/>
-      <c r="AF62" s="53"/>
-      <c r="AG62" s="53"/>
-      <c r="AH62" s="53"/>
-      <c r="AI62" s="53"/>
-      <c r="AJ62" s="53"/>
-      <c r="AK62" s="51"/>
-      <c r="AL62" s="52"/>
-      <c r="AM62" s="52"/>
-      <c r="AN62" s="52"/>
-      <c r="AO62" s="52"/>
-      <c r="AP62" s="24"/>
-      <c r="AQ62" s="24"/>
-    </row>
-    <row r="63" spans="1:43" ht="15">
-      <c r="A63" s="10">
-        <v>62</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="10">
-        <v>10</v>
-      </c>
-      <c r="D63" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" s="10">
-        <v>84</v>
-      </c>
-      <c r="H63" s="10">
-        <v>100</v>
-      </c>
-      <c r="I63" s="10">
-        <v>1000</v>
-      </c>
-      <c r="J63" s="10">
-        <v>473</v>
-      </c>
-      <c r="K63" s="10">
-        <v>272</v>
-      </c>
-      <c r="L63" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="M63" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="N63" s="14">
-        <v>0.20449999999999999</v>
-      </c>
-      <c r="O63" s="14">
-        <v>15.669</v>
-      </c>
-      <c r="P63" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="10"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="10"/>
-      <c r="AB63" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="15"/>
-      <c r="AE63" s="10"/>
-      <c r="AF63" s="15"/>
-      <c r="AG63" s="10"/>
-      <c r="AH63" s="15"/>
-      <c r="AI63" s="10"/>
-      <c r="AJ63" s="15"/>
-      <c r="AK63" s="10"/>
-      <c r="AL63" s="14"/>
-      <c r="AM63" s="14"/>
-      <c r="AN63" s="14"/>
-      <c r="AO63" s="14"/>
-      <c r="AP63" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ63" s="10"/>
-    </row>
-    <row r="64" spans="1:43" ht="15">
-      <c r="A64" s="24">
-        <v>63</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="24">
-        <v>10</v>
-      </c>
-      <c r="D64" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="G64" s="24">
-        <v>49</v>
-      </c>
-      <c r="H64" s="24">
-        <v>4</v>
-      </c>
-      <c r="I64" s="24">
-        <v>40</v>
-      </c>
-      <c r="J64" s="24">
-        <v>19</v>
-      </c>
-      <c r="K64" s="24">
-        <v>10</v>
-      </c>
-      <c r="L64" s="25">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="M64" s="25">
-        <v>4.8</v>
-      </c>
-      <c r="N64" s="58">
-        <v>9.6861999999999995</v>
-      </c>
-      <c r="O64" s="58">
-        <v>143.09</v>
-      </c>
-      <c r="P64" s="52">
-        <v>0.6</v>
-      </c>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC64" s="27"/>
-      <c r="AD64" s="27"/>
-      <c r="AE64" s="27"/>
-      <c r="AF64" s="27"/>
-      <c r="AG64" s="27"/>
-      <c r="AH64" s="27"/>
-      <c r="AI64" s="27"/>
-      <c r="AJ64" s="27"/>
-      <c r="AK64" s="24">
-        <v>8.1</v>
-      </c>
-      <c r="AL64" s="52">
-        <v>4.4272</v>
-      </c>
-      <c r="AM64" s="52">
-        <v>53.213000000000001</v>
-      </c>
-      <c r="AN64" s="52">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="AO64" s="52">
-        <v>3.8</v>
-      </c>
-      <c r="AP64" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ64" s="24"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
